--- a/outputs/SORs/SOR Testing_IPS Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Segment Functions.xlsx
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="101" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="L4" s="101" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="101" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2656,7 +2656,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="101" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="102" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="102" t="n">
         <v>0.0833333333333333</v>
@@ -3536,77 +3536,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="104" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5519,7 +5448,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -5590,7 +5519,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -5661,7 +5590,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -6328,7 +6257,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="111" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6399,7 +6328,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="111" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6768,7 +6697,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="112" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6839,7 +6768,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="112" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6910,7 +6839,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="112" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -8633,63 +8562,126 @@
         <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E3" s="119" t="n">
-        <v>0.0639</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
       <c r="M3" s="119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="119" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8946,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>0.08</v>
+        <v>0.0769</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0.076</v>
+        <v>0.0733</v>
       </c>
       <c r="K4" s="12" t="n">
         <v>0</v>
@@ -9125,7 +9117,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9196,7 +9188,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9267,7 +9259,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9508,9 +9500,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="120"/>
-      <c r="L3" s="120" t="n">
-        <v>1</v>
-      </c>
+      <c r="L3" s="120"/>
       <c r="M3" s="120" t="n">
         <v>1</v>
       </c>
@@ -9719,9 +9709,7 @@
       <c r="K3" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="121" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" s="121"/>
       <c r="M3" s="121" t="n">
         <v>0</v>
       </c>
@@ -9855,7 +9843,7 @@
         <v>41</v>
       </c>
       <c r="E2" s="122" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9926,7 +9914,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="122" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9997,7 +9985,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="122" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11723,9 +11711,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="17"/>
-      <c r="L5" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="17"/>
       <c r="M5" s="17" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +11760,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -11829,7 +11815,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -14355,13 +14341,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="24" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I4" s="24" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>0.1887</v>
+        <v>0.2326</v>
       </c>
       <c r="K4" s="24" t="n">
         <v>0</v>
@@ -14431,9 +14417,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="24"/>
-      <c r="L5" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="24"/>
       <c r="M5" s="24" t="n">
         <v>1</v>
       </c>
@@ -14730,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="25" t="n">
-        <v>0</v>
+        <v>0.0909</v>
       </c>
       <c r="M4" s="25" t="n">
         <v>0</v>
@@ -15078,7 +15062,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="26" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -15149,7 +15133,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="26" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -18874,7 +18858,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="37" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -18945,7 +18929,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="37" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -21199,49 +21183,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="44" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="J4" s="44" t="n">
         <v>0.0082</v>
       </c>
-      <c r="J4" s="44" t="n">
-        <v>0.0081</v>
-      </c>
       <c r="K4" s="44" t="n">
-        <v>0.0167</v>
+        <v>0.0168</v>
       </c>
       <c r="L4" s="44" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0169</v>
       </c>
       <c r="M4" s="44" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="44" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="44" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="44" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="44" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="44" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="44" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="44" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="44" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="44" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -21398,9 +21382,7 @@
       <c r="K7" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="44" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="44"/>
       <c r="M7" s="44" t="n">
         <v>1</v>
       </c>
@@ -21697,7 +21679,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="45" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="45" t="n">
         <v>0</v>
@@ -22155,7 +22137,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="46" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -22226,7 +22208,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="46" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -22607,9 +22589,7 @@
       <c r="K5" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="47" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="47"/>
       <c r="M5" s="47" t="n">
         <v>1</v>
       </c>
@@ -23268,9 +23248,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="49"/>
-      <c r="L5" s="49" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="49"/>
       <c r="M5" s="49" t="n">
         <v>1</v>
       </c>
@@ -23319,7 +23297,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="49" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -23372,7 +23350,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="49" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -23425,7 +23403,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="49" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -24737,16 +24715,16 @@
         <v>29</v>
       </c>
       <c r="G4" s="52" t="n">
-        <v>0.0175</v>
+        <v>0.0179</v>
       </c>
       <c r="H4" s="52" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="52" t="n">
-        <v>0.0517</v>
+        <v>0.0526</v>
       </c>
       <c r="J4" s="52" t="n">
-        <v>0.0686</v>
+        <v>0.0698</v>
       </c>
       <c r="K4" s="52" t="n">
         <v>0</v>
@@ -26178,7 +26156,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="56" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="M4" s="56" t="n">
         <v>0</v>
@@ -27134,9 +27112,7 @@
       <c r="K5" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="59" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="59"/>
       <c r="M5" s="59" t="n">
         <v>0</v>
       </c>
@@ -27611,9 +27587,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="6" t="n">
         <v>1</v>
       </c>
@@ -28613,9 +28587,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="62"/>
-      <c r="L7" s="62" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="62"/>
       <c r="M7" s="62" t="n">
         <v>1</v>
       </c>
@@ -28664,7 +28636,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="62" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -28733,7 +28705,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="62" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -28802,7 +28774,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="62" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -29155,6 +29127,69 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="63" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -31303,13 +31338,13 @@
         <v>0.0053</v>
       </c>
       <c r="J4" s="70" t="n">
-        <v>0.0263</v>
+        <v>0.0262</v>
       </c>
       <c r="K4" s="70" t="n">
         <v>0.0079</v>
       </c>
       <c r="L4" s="70" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="M4" s="70" t="n">
         <v>0</v>
@@ -31359,7 +31394,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -31430,7 +31465,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -31501,7 +31536,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -31522,40 +31557,40 @@
         <v>0.5</v>
       </c>
       <c r="L7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0</v>
       </c>
       <c r="M7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="N7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="O7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="P7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="Q7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="R7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="S7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="T7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="U7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="V7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="W7" s="70" t="n">
-        <v>0.478260869565217</v>
+        <v>0.458333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -31572,7 +31607,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="70" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -31643,7 +31678,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="70" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -31714,13 +31749,13 @@
         <v>41</v>
       </c>
       <c r="E10" s="70" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="70" t="n">
-        <v>0.1667</v>
+        <v>0.2</v>
       </c>
       <c r="H10" s="70" t="n">
         <v>0</v>
@@ -31729,46 +31764,46 @@
         <v>0</v>
       </c>
       <c r="J10" s="70" t="n">
-        <v>0.1667</v>
+        <v>0.2</v>
       </c>
       <c r="K10" s="70" t="n">
-        <v>0.1667</v>
+        <v>0.2</v>
       </c>
       <c r="L10" s="70" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M10" s="70" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N10" s="70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O10" s="70" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P10" s="70" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q10" s="70" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R10" s="70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S10" s="70" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T10" s="70" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U10" s="70" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V10" s="70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W10" s="70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -32370,7 +32405,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="72" t="n">
-        <v>0</v>
+        <v>0.0455</v>
       </c>
       <c r="M4" s="72" t="n">
         <v>0</v>
@@ -33974,9 +34009,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="77"/>
-      <c r="L7" s="77" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="77"/>
       <c r="M7" s="77" t="n">
         <v>1</v>
       </c>
@@ -34025,7 +34058,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="77" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -34096,7 +34129,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="77" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -34167,7 +34200,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="77" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -35469,7 +35502,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="80" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -35522,7 +35555,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="80" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -35575,7 +35608,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="80" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -35944,7 +35977,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="81" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -36013,7 +36046,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="81" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -37909,7 +37942,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="87" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -37980,7 +38013,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="87" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -38051,7 +38084,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="87" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -38552,9 +38585,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="88"/>
-      <c r="L7" s="88" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="88"/>
       <c r="M7" s="88" t="n">
         <v>1</v>
       </c>
@@ -38603,7 +38634,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="88" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -38674,7 +38705,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="88" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -38745,7 +38776,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="88" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -38766,40 +38797,40 @@
         <v>0.0076</v>
       </c>
       <c r="L10" s="88" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="88" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="88" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="88" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="88" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="88" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="88" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="88" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="88" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="88" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="88" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -39733,7 +39764,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="90" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -39788,7 +39819,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="90" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -41092,7 +41123,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="94" t="n">
-        <v>0.0435</v>
+        <v>0.0455</v>
       </c>
       <c r="L4" s="94" t="n">
         <v>0</v>
@@ -42152,58 +42183,64 @@
         <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" s="97" t="n">
-        <v>1</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="97" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" s="97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="97"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="97" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -42220,10 +42257,10 @@
         <v>41</v>
       </c>
       <c r="E6" s="97" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="97" t="n">
         <v>0</v>
@@ -42291,29 +42328,21 @@
         <v>41</v>
       </c>
       <c r="E7" s="97" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="97" t="n">
-        <v>0</v>
-      </c>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
       <c r="J7" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="97" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
       <c r="M7" s="97" t="n">
         <v>0</v>
       </c>
@@ -42345,71 +42374,6 @@
         <v>0</v>
       </c>
       <c r="W7" s="97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="97" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42973,7 +42937,7 @@
         <v>0.04</v>
       </c>
       <c r="L4" s="99" t="n">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
       <c r="M4" s="99" t="n">
         <v>0</v>

--- a/outputs/SORs/SOR Testing_IPS Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Segment Functions.xlsx
@@ -2262,7 +2262,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="101" t="n">
-        <v>0</v>
+        <v>0.2778</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2333,7 +2333,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="101" t="n">
-        <v>0</v>
+        <v>0.2778</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2404,7 +2404,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="101" t="n">
-        <v>0</v>
+        <v>0.2778</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2428,37 +2428,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="101" t="n">
-        <v>0</v>
+        <v>0.0555583333333333</v>
       </c>
       <c r="N4" s="101" t="n">
-        <v>0</v>
+        <v>0.166675</v>
       </c>
       <c r="O4" s="101" t="n">
-        <v>0</v>
+        <v>0.0555583333333333</v>
       </c>
       <c r="P4" s="101" t="n">
-        <v>0</v>
+        <v>0.0555583333333333</v>
       </c>
       <c r="Q4" s="101" t="n">
-        <v>0</v>
+        <v>0.0555583333333333</v>
       </c>
       <c r="R4" s="101" t="n">
-        <v>0</v>
+        <v>0.166675</v>
       </c>
       <c r="S4" s="101" t="n">
-        <v>0</v>
+        <v>0.0555583333333333</v>
       </c>
       <c r="T4" s="101" t="n">
-        <v>0</v>
+        <v>0.0555583333333333</v>
       </c>
       <c r="U4" s="101" t="n">
-        <v>0</v>
+        <v>0.0555583333333333</v>
       </c>
       <c r="V4" s="101" t="n">
-        <v>0</v>
+        <v>0.166675</v>
       </c>
       <c r="W4" s="101" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="5">
@@ -2584,9 +2584,7 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="101" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E7" s="101"/>
       <c r="F7" t="s">
         <v>27</v>
       </c>
@@ -2655,9 +2653,7 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="101" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E8" s="101"/>
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -2812,7 +2808,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="102" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2883,7 +2879,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="102" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2954,7 +2950,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="102" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2978,37 +2974,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="102" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="N4" s="102" t="n">
-        <v>0.25</v>
+        <v>0.250025</v>
       </c>
       <c r="O4" s="102" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="P4" s="102" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="Q4" s="102" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="R4" s="102" t="n">
-        <v>0.25</v>
+        <v>0.250025</v>
       </c>
       <c r="S4" s="102" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="T4" s="102" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="U4" s="102" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="V4" s="102" t="n">
-        <v>0.25</v>
+        <v>0.250025</v>
       </c>
       <c r="W4" s="102" t="n">
-        <v>1</v>
+        <v>1.0001</v>
       </c>
     </row>
   </sheetData>
@@ -3407,9 +3403,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="104" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="104"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3478,9 +3472,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="104" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="104"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5125,7 +5117,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5196,7 +5188,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5267,7 +5259,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5291,37 +5283,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="5">
@@ -5448,7 +5440,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -5519,7 +5511,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -5590,7 +5582,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -6256,9 +6248,7 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="111" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="111"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -6327,9 +6317,7 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="111" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="111"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -6697,7 +6685,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="112" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6768,7 +6756,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="112" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6839,7 +6827,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="112" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -7582,9 +7570,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="115" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="115"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7649,9 +7635,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="115" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="115"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -8628,7 +8612,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="119" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8784,7 +8768,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0</v>
+        <v>0.0735</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8855,7 +8839,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0</v>
+        <v>0.0735</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8926,7 +8910,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0</v>
+        <v>0.0735</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8950,37 +8934,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0</v>
+        <v>0.0441</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0</v>
+        <v>0.0441</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0</v>
+        <v>0.0441</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0</v>
+        <v>0.1764</v>
       </c>
     </row>
     <row r="5">
@@ -9117,7 +9101,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9188,7 +9172,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9259,7 +9243,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9843,7 +9827,7 @@
         <v>41</v>
       </c>
       <c r="E2" s="122" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9914,7 +9898,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="122" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9985,7 +9969,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="122" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10549,7 +10533,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10620,7 +10604,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10691,7 +10675,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10715,37 +10699,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0</v>
+        <v>0.0306</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0</v>
+        <v>0.0306</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0</v>
+        <v>0.0306</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0</v>
+        <v>0.1224</v>
       </c>
     </row>
     <row r="5">
@@ -10956,9 +10940,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="15"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -11027,9 +11009,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="15"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -11759,9 +11739,7 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="17" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="17"/>
       <c r="F6" t="s">
         <v>27</v>
       </c>
@@ -11814,9 +11792,7 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="17" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E7" s="17"/>
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -11954,9 +11930,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="18"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -12025,9 +11999,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="18"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -13782,7 +13754,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13853,7 +13825,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="23" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13924,7 +13896,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13948,37 +13920,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="23" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="N4" s="23" t="n">
-        <v>0</v>
+        <v>0.04615</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0</v>
+        <v>0.04615</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0</v>
+        <v>0.04615</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>0</v>
+        <v>0.1846</v>
       </c>
     </row>
     <row r="5">
@@ -14190,7 +14162,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14261,7 +14233,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -14332,7 +14304,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14356,37 +14328,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="24" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="N4" s="24" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="O4" s="24" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="Q4" s="24" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="R4" s="24" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="S4" s="24" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="T4" s="24" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="U4" s="24" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="V4" s="24" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="W4" s="24" t="n">
-        <v>0</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="5">
@@ -14551,7 +14523,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0</v>
+        <v>0.0847</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14622,7 +14594,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0</v>
+        <v>0.0847</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -14693,7 +14665,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0</v>
+        <v>0.0847</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14717,37 +14689,37 @@
         <v>0.0909</v>
       </c>
       <c r="M4" s="25" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="N4" s="25" t="n">
-        <v>0</v>
+        <v>0.050825</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="P4" s="25" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="Q4" s="25" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="R4" s="25" t="n">
-        <v>0</v>
+        <v>0.050825</v>
       </c>
       <c r="S4" s="25" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="T4" s="25" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="U4" s="25" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>0</v>
+        <v>0.050825</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>0</v>
+        <v>0.2033</v>
       </c>
     </row>
   </sheetData>
@@ -15061,9 +15033,7 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="26" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="26"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -15132,9 +15102,7 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="26" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="26"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -16481,7 +16449,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0</v>
+        <v>0.0943</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -16552,7 +16520,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0</v>
+        <v>0.0943</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -16623,7 +16591,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0</v>
+        <v>0.0943</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -16647,37 +16615,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="30" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="N4" s="30" t="n">
-        <v>0</v>
+        <v>0.056575</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0</v>
+        <v>0.056575</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0</v>
+        <v>0.056575</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0</v>
+        <v>0.2263</v>
       </c>
     </row>
   </sheetData>
@@ -16778,9 +16746,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="31"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -16849,9 +16815,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="31"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -18009,9 +17973,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="35"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -18080,9 +18042,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="35"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -18857,9 +18817,7 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="37" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E7" s="37"/>
       <c r="F7" t="s">
         <v>27</v>
       </c>
@@ -18928,9 +18886,7 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="37" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E8" s="37"/>
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -19382,9 +19338,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="39" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="39"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -19453,9 +19407,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="39" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="39"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -19907,9 +19859,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="40"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -19978,9 +19928,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="40"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -21029,7 +20977,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="44" t="n">
-        <v>0</v>
+        <v>0.0414</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -21100,7 +21048,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="44" t="n">
-        <v>0</v>
+        <v>0.0414</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -21171,7 +21119,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="44" t="n">
-        <v>0</v>
+        <v>0.0414</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -21195,37 +21143,37 @@
         <v>0.0169</v>
       </c>
       <c r="M4" s="44" t="n">
-        <v>0</v>
+        <v>0.00828333333333333</v>
       </c>
       <c r="N4" s="44" t="n">
-        <v>0</v>
+        <v>0.02485</v>
       </c>
       <c r="O4" s="44" t="n">
-        <v>0</v>
+        <v>0.00828333333333333</v>
       </c>
       <c r="P4" s="44" t="n">
-        <v>0</v>
+        <v>0.00828333333333333</v>
       </c>
       <c r="Q4" s="44" t="n">
-        <v>0</v>
+        <v>0.00828333333333333</v>
       </c>
       <c r="R4" s="44" t="n">
-        <v>0</v>
+        <v>0.02485</v>
       </c>
       <c r="S4" s="44" t="n">
-        <v>0</v>
+        <v>0.00828333333333333</v>
       </c>
       <c r="T4" s="44" t="n">
-        <v>0</v>
+        <v>0.00828333333333333</v>
       </c>
       <c r="U4" s="44" t="n">
-        <v>0</v>
+        <v>0.00828333333333333</v>
       </c>
       <c r="V4" s="44" t="n">
-        <v>0</v>
+        <v>0.02485</v>
       </c>
       <c r="W4" s="44" t="n">
-        <v>0</v>
+        <v>0.0994</v>
       </c>
     </row>
     <row r="5">
@@ -21516,7 +21464,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="45" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -21587,7 +21535,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="45" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -21658,7 +21606,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="45" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -21682,37 +21630,37 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="45" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="O4" s="45" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="P4" s="45" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="Q4" s="45" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="R4" s="45" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="S4" s="45" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="T4" s="45" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="U4" s="45" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="V4" s="45" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="W4" s="45" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
     </row>
   </sheetData>
@@ -22136,9 +22084,7 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="46" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E7" s="46"/>
       <c r="F7" t="s">
         <v>27</v>
       </c>
@@ -22207,9 +22153,7 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="46" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E8" s="46"/>
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -23021,7 +22965,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="49" t="n">
-        <v>0</v>
+        <v>0.1351</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -23092,7 +23036,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="49" t="n">
-        <v>0</v>
+        <v>0.1351</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -23163,7 +23107,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="49" t="n">
-        <v>0</v>
+        <v>0.1351</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -23187,37 +23131,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="49" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="N4" s="49" t="n">
-        <v>0</v>
+        <v>0.08105</v>
       </c>
       <c r="O4" s="49" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="P4" s="49" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="Q4" s="49" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="R4" s="49" t="n">
-        <v>0</v>
+        <v>0.08105</v>
       </c>
       <c r="S4" s="49" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="T4" s="49" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="U4" s="49" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="V4" s="49" t="n">
-        <v>0</v>
+        <v>0.08105</v>
       </c>
       <c r="W4" s="49" t="n">
-        <v>0</v>
+        <v>0.3242</v>
       </c>
     </row>
     <row r="5">
@@ -23297,7 +23241,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="49" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -23350,7 +23294,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="49" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -23403,7 +23347,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="49" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -24567,7 +24511,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="52" t="n">
-        <v>0</v>
+        <v>0.0692</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -24638,7 +24582,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="52" t="n">
-        <v>0</v>
+        <v>0.0692</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -24709,7 +24653,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="52" t="n">
-        <v>0</v>
+        <v>0.0692</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -24733,37 +24677,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="52" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="N4" s="52" t="n">
-        <v>0</v>
+        <v>0.041525</v>
       </c>
       <c r="O4" s="52" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="P4" s="52" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="Q4" s="52" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="R4" s="52" t="n">
-        <v>0</v>
+        <v>0.041525</v>
       </c>
       <c r="S4" s="52" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="T4" s="52" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="U4" s="52" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="V4" s="52" t="n">
-        <v>0</v>
+        <v>0.041525</v>
       </c>
       <c r="W4" s="52" t="n">
-        <v>0</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="5">
@@ -24989,7 +24933,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="53" t="n">
-        <v>0</v>
+        <v>0.0355</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -25060,7 +25004,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="53" t="n">
-        <v>0</v>
+        <v>0.0355</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -25131,7 +25075,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="53" t="n">
-        <v>0</v>
+        <v>0.0355</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -25155,37 +25099,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="53" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="N4" s="53" t="n">
-        <v>0</v>
+        <v>0.0213</v>
       </c>
       <c r="O4" s="53" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="P4" s="53" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="Q4" s="53" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="R4" s="53" t="n">
-        <v>0</v>
+        <v>0.0213</v>
       </c>
       <c r="S4" s="53" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="T4" s="53" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="U4" s="53" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="V4" s="53" t="n">
-        <v>0</v>
+        <v>0.0213</v>
       </c>
       <c r="W4" s="53" t="n">
-        <v>0</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="5">
@@ -25993,7 +25937,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="56" t="n">
-        <v>0</v>
+        <v>0.1471</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -26064,7 +26008,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="56" t="n">
-        <v>0</v>
+        <v>0.1471</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -26135,7 +26079,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="56" t="n">
-        <v>0</v>
+        <v>0.1471</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -26159,37 +26103,37 @@
         <v>0.1667</v>
       </c>
       <c r="M4" s="56" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="N4" s="56" t="n">
-        <v>0</v>
+        <v>0.08825</v>
       </c>
       <c r="O4" s="56" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="P4" s="56" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="Q4" s="56" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="R4" s="56" t="n">
-        <v>0</v>
+        <v>0.08825</v>
       </c>
       <c r="S4" s="56" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="T4" s="56" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="U4" s="56" t="n">
-        <v>0</v>
+        <v>0.0294166666666667</v>
       </c>
       <c r="V4" s="56" t="n">
-        <v>0</v>
+        <v>0.08825</v>
       </c>
       <c r="W4" s="56" t="n">
-        <v>0</v>
+        <v>0.353</v>
       </c>
     </row>
   </sheetData>
@@ -27720,9 +27664,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="60" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="60"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -27791,9 +27733,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="60" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="60"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -28636,7 +28576,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="62" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -28705,7 +28645,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="62" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -28774,7 +28714,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="62" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -29288,9 +29228,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="64"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -29333,9 +29271,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="64"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -29761,9 +29697,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="66" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="66"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -29832,9 +29766,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="66" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="66"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -31181,7 +31113,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="70" t="n">
-        <v>0</v>
+        <v>0.0368</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -31252,7 +31184,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="70" t="n">
-        <v>0</v>
+        <v>0.0368</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -31323,7 +31255,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="70" t="n">
-        <v>0</v>
+        <v>0.0368</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -31347,37 +31279,37 @@
         <v>0.0026</v>
       </c>
       <c r="M4" s="70" t="n">
-        <v>0</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="N4" s="70" t="n">
-        <v>0</v>
+        <v>0.022075</v>
       </c>
       <c r="O4" s="70" t="n">
-        <v>0</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="P4" s="70" t="n">
-        <v>0</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="Q4" s="70" t="n">
-        <v>0</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="R4" s="70" t="n">
-        <v>0</v>
+        <v>0.022075</v>
       </c>
       <c r="S4" s="70" t="n">
-        <v>0</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="T4" s="70" t="n">
-        <v>0</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="U4" s="70" t="n">
-        <v>0</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="V4" s="70" t="n">
-        <v>0</v>
+        <v>0.022075</v>
       </c>
       <c r="W4" s="70" t="n">
-        <v>0</v>
+        <v>0.0883</v>
       </c>
     </row>
     <row r="5">
@@ -31607,7 +31539,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="70" t="n">
-        <v>0.0776</v>
+        <v>1.4583</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -31678,7 +31610,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="70" t="n">
-        <v>0.0776</v>
+        <v>1.4583</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -31749,7 +31681,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="70" t="n">
-        <v>0.0776</v>
+        <v>1.4583</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -31773,37 +31705,37 @@
         <v>1.25</v>
       </c>
       <c r="M10" s="70" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.291658333333333</v>
       </c>
       <c r="N10" s="70" t="n">
-        <v>0.25</v>
+        <v>0.874975</v>
       </c>
       <c r="O10" s="70" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.291658333333333</v>
       </c>
       <c r="P10" s="70" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.291658333333333</v>
       </c>
       <c r="Q10" s="70" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.291658333333333</v>
       </c>
       <c r="R10" s="70" t="n">
-        <v>0.25</v>
+        <v>0.874975</v>
       </c>
       <c r="S10" s="70" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.291658333333333</v>
       </c>
       <c r="T10" s="70" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.291658333333333</v>
       </c>
       <c r="U10" s="70" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.291658333333333</v>
       </c>
       <c r="V10" s="70" t="n">
-        <v>0.25</v>
+        <v>0.874975</v>
       </c>
       <c r="W10" s="70" t="n">
-        <v>1</v>
+        <v>3.4999</v>
       </c>
     </row>
   </sheetData>
@@ -31904,9 +31836,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="71" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="71"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -31975,9 +31905,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="71" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="71"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -32242,7 +32170,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="72" t="n">
-        <v>0</v>
+        <v>0.0435</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -32313,7 +32241,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="72" t="n">
-        <v>0</v>
+        <v>0.0435</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -32384,7 +32312,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="72" t="n">
-        <v>0</v>
+        <v>0.0435</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -32408,37 +32336,37 @@
         <v>0.0455</v>
       </c>
       <c r="M4" s="72" t="n">
-        <v>0</v>
+        <v>0.0087</v>
       </c>
       <c r="N4" s="72" t="n">
-        <v>0</v>
+        <v>0.0261</v>
       </c>
       <c r="O4" s="72" t="n">
-        <v>0</v>
+        <v>0.0087</v>
       </c>
       <c r="P4" s="72" t="n">
-        <v>0</v>
+        <v>0.0087</v>
       </c>
       <c r="Q4" s="72" t="n">
-        <v>0</v>
+        <v>0.0087</v>
       </c>
       <c r="R4" s="72" t="n">
-        <v>0</v>
+        <v>0.0261</v>
       </c>
       <c r="S4" s="72" t="n">
-        <v>0</v>
+        <v>0.0087</v>
       </c>
       <c r="T4" s="72" t="n">
-        <v>0</v>
+        <v>0.0087</v>
       </c>
       <c r="U4" s="72" t="n">
-        <v>0</v>
+        <v>0.0087</v>
       </c>
       <c r="V4" s="72" t="n">
-        <v>0</v>
+        <v>0.0261</v>
       </c>
       <c r="W4" s="72" t="n">
-        <v>0</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="5">
@@ -32653,9 +32581,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="73" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="73"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -32706,9 +32632,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="73" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="73"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -32844,9 +32768,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="74" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="74"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -32915,9 +32837,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="74" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="74"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -33668,7 +33588,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="77" t="n">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -33739,7 +33659,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="77" t="n">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -33810,7 +33730,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="77" t="n">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -33834,37 +33754,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="77" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="N4" s="77" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="O4" s="77" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="P4" s="77" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="Q4" s="77" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="R4" s="77" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="S4" s="77" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="T4" s="77" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="U4" s="77" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="V4" s="77" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="W4" s="77" t="n">
-        <v>0</v>
+        <v>0.2352</v>
       </c>
     </row>
     <row r="5">
@@ -34058,7 +33978,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="77" t="n">
-        <v>0.0776</v>
+        <v>0.1351</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -34129,7 +34049,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="77" t="n">
-        <v>0.0776</v>
+        <v>0.1351</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -34200,7 +34120,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="77" t="n">
-        <v>0.0776</v>
+        <v>0.1351</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -34224,37 +34144,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="77" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="N10" s="77" t="n">
-        <v>0</v>
+        <v>0.08105</v>
       </c>
       <c r="O10" s="77" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="P10" s="77" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="Q10" s="77" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="R10" s="77" t="n">
-        <v>0</v>
+        <v>0.08105</v>
       </c>
       <c r="S10" s="77" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="T10" s="77" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="U10" s="77" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="V10" s="77" t="n">
-        <v>0</v>
+        <v>0.08105</v>
       </c>
       <c r="W10" s="77" t="n">
-        <v>0</v>
+        <v>0.3242</v>
       </c>
     </row>
   </sheetData>
@@ -34355,9 +34275,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="78" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="78"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -34426,9 +34344,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="78" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="78"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -35502,7 +35418,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="80" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -35555,7 +35471,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="80" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -35608,7 +35524,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="80" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -35976,9 +35892,7 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="81" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="81"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -36045,9 +35959,7 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="81" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="81"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -36199,9 +36111,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="82" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="82"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -36270,9 +36180,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="82" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="82"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -37942,7 +37850,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="87" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -38013,7 +37921,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="87" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -38084,7 +37992,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="87" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -38634,7 +38542,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="88" t="n">
-        <v>0.0776</v>
+        <v>0.0153</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -38705,7 +38613,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="88" t="n">
-        <v>0.0776</v>
+        <v>0.0153</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -38776,7 +38684,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="88" t="n">
-        <v>0.0776</v>
+        <v>0.0153</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -38800,37 +38708,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="88" t="n">
-        <v>0</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="N10" s="88" t="n">
-        <v>0</v>
+        <v>0.009175</v>
       </c>
       <c r="O10" s="88" t="n">
-        <v>0</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="P10" s="88" t="n">
-        <v>0</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="Q10" s="88" t="n">
-        <v>0</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="R10" s="88" t="n">
-        <v>0</v>
+        <v>0.009175</v>
       </c>
       <c r="S10" s="88" t="n">
-        <v>0</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="T10" s="88" t="n">
-        <v>0</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="U10" s="88" t="n">
-        <v>0</v>
+        <v>0.00305833333333333</v>
       </c>
       <c r="V10" s="88" t="n">
-        <v>0</v>
+        <v>0.009175</v>
       </c>
       <c r="W10" s="88" t="n">
-        <v>0</v>
+        <v>0.0367</v>
       </c>
     </row>
   </sheetData>
@@ -39229,9 +39137,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -39292,9 +39198,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -39763,9 +39667,7 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="90" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E7" s="90"/>
       <c r="F7" t="s">
         <v>27</v>
       </c>
@@ -39818,9 +39720,7 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="90" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E8" s="90"/>
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -40963,7 +40863,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="94" t="n">
-        <v>0</v>
+        <v>0.0439</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -41034,7 +40934,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="94" t="n">
-        <v>0</v>
+        <v>0.0439</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -41105,7 +41005,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="94" t="n">
-        <v>0</v>
+        <v>0.0439</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -41129,37 +41029,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="94" t="n">
-        <v>0</v>
+        <v>0.00878333333333333</v>
       </c>
       <c r="N4" s="94" t="n">
-        <v>0</v>
+        <v>0.02635</v>
       </c>
       <c r="O4" s="94" t="n">
-        <v>0</v>
+        <v>0.00878333333333333</v>
       </c>
       <c r="P4" s="94" t="n">
-        <v>0</v>
+        <v>0.00878333333333333</v>
       </c>
       <c r="Q4" s="94" t="n">
-        <v>0</v>
+        <v>0.00878333333333333</v>
       </c>
       <c r="R4" s="94" t="n">
-        <v>0</v>
+        <v>0.02635</v>
       </c>
       <c r="S4" s="94" t="n">
-        <v>0</v>
+        <v>0.00878333333333333</v>
       </c>
       <c r="T4" s="94" t="n">
-        <v>0</v>
+        <v>0.00878333333333333</v>
       </c>
       <c r="U4" s="94" t="n">
-        <v>0</v>
+        <v>0.00878333333333333</v>
       </c>
       <c r="V4" s="94" t="n">
-        <v>0</v>
+        <v>0.02635</v>
       </c>
       <c r="W4" s="94" t="n">
-        <v>0</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="5">
@@ -42186,7 +42086,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="97" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -42257,7 +42157,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="97" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -42328,7 +42228,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="97" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -42774,7 +42674,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="99" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -42845,7 +42745,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="99" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -42916,7 +42816,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="99" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -42940,37 +42840,37 @@
         <v>0.0417</v>
       </c>
       <c r="M4" s="99" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="N4" s="99" t="n">
-        <v>0</v>
+        <v>0.0714</v>
       </c>
       <c r="O4" s="99" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="P4" s="99" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="Q4" s="99" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="R4" s="99" t="n">
-        <v>0</v>
+        <v>0.0714</v>
       </c>
       <c r="S4" s="99" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="T4" s="99" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="U4" s="99" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="V4" s="99" t="n">
-        <v>0</v>
+        <v>0.0714</v>
       </c>
       <c r="W4" s="99" t="n">
-        <v>0</v>
+        <v>0.2856</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_IPS Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Segment Functions.xlsx
@@ -126,14 +126,16 @@
     <sheet name="Brisbane Australia" sheetId="118" state="visible" r:id="rId118"/>
     <sheet name="Gregory Hills Australia" sheetId="119" state="visible" r:id="rId119"/>
     <sheet name="Milwaukee Wisconsin" sheetId="120" state="visible" r:id="rId120"/>
-    <sheet name="Singapore" sheetId="121" state="visible" r:id="rId121"/>
-    <sheet name="Sao Paulo Brazil" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet name="Shanghai Xuhui China" sheetId="121" state="visible" r:id="rId121"/>
+    <sheet name="Singapore" sheetId="122" state="visible" r:id="rId122"/>
+    <sheet name="Sao Paulo Brazil" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet name="Charlotte  North Carolina" sheetId="124" state="visible" r:id="rId124"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -588,17 +590,23 @@
     <t xml:space="preserve">Milwaukee Wisconsin</t>
   </si>
   <si>
+    <t xml:space="preserve">Shanghai Xuhui China</t>
+  </si>
+  <si>
     <t xml:space="preserve">Singapore</t>
   </si>
   <si>
     <t xml:space="preserve">Sao Paulo Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte  North Carolina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="122">
+  <numFmts count="124">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -721,6 +729,8 @@
     <numFmt numFmtId="284" formatCode="0.0%"/>
     <numFmt numFmtId="285" formatCode="0.0%"/>
     <numFmt numFmtId="286" formatCode="0.0%"/>
+    <numFmt numFmtId="287" formatCode="0.0%"/>
+    <numFmt numFmtId="288" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -756,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -880,6 +890,8 @@
     <xf numFmtId="284" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="285" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="286" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="287" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="288" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2262,7 +2274,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="101" t="n">
-        <v>0.2778</v>
+        <v>0.2857</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2333,7 +2345,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="101" t="n">
-        <v>0.2778</v>
+        <v>0.2857</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2404,7 +2416,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="101" t="n">
-        <v>0.2778</v>
+        <v>0.2857</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2428,37 +2440,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="101" t="n">
-        <v>0.0555583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="101" t="n">
-        <v>0.166675</v>
+        <v>0.3333</v>
       </c>
       <c r="O4" s="101" t="n">
-        <v>0.0555583333333333</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="P4" s="101" t="n">
-        <v>0.0555583333333333</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="Q4" s="101" t="n">
-        <v>0.0555583333333333</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="R4" s="101" t="n">
-        <v>0.166675</v>
+        <v>0.14285</v>
       </c>
       <c r="S4" s="101" t="n">
-        <v>0.0555583333333333</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="T4" s="101" t="n">
-        <v>0.0555583333333333</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="U4" s="101" t="n">
-        <v>0.0555583333333333</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="V4" s="101" t="n">
-        <v>0.166675</v>
+        <v>0.14285</v>
       </c>
       <c r="W4" s="101" t="n">
-        <v>0.6667</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="5">
@@ -2808,7 +2820,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="102" t="n">
-        <v>0.4167</v>
+        <v>0.4348</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2879,7 +2891,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="102" t="n">
-        <v>0.4167</v>
+        <v>0.4348</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2950,7 +2962,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="102" t="n">
-        <v>0.4167</v>
+        <v>0.4348</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2974,37 +2986,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="102" t="n">
-        <v>0.0833416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="102" t="n">
-        <v>0.250025</v>
+        <v>0</v>
       </c>
       <c r="O4" s="102" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.0724666666666667</v>
       </c>
       <c r="P4" s="102" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.0724666666666667</v>
       </c>
       <c r="Q4" s="102" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.0724666666666667</v>
       </c>
       <c r="R4" s="102" t="n">
-        <v>0.250025</v>
+        <v>0.2174</v>
       </c>
       <c r="S4" s="102" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.0724666666666667</v>
       </c>
       <c r="T4" s="102" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.0724666666666667</v>
       </c>
       <c r="U4" s="102" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.0724666666666667</v>
       </c>
       <c r="V4" s="102" t="n">
-        <v>0.250025</v>
+        <v>0.2174</v>
       </c>
       <c r="W4" s="102" t="n">
-        <v>1.0001</v>
+        <v>0.8696</v>
       </c>
     </row>
   </sheetData>
@@ -4223,7 +4235,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4294,7 +4306,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4365,7 +4377,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4389,37 +4401,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N4" s="107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O4" s="107" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="P4" s="107" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="Q4" s="107" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="R4" s="107" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="107" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="T4" s="107" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="U4" s="107" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="V4" s="107" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W4" s="107" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -5117,7 +5129,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.2381</v>
+        <v>0.274</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5188,7 +5200,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.2381</v>
+        <v>0.274</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5259,22 +5271,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.2381</v>
+        <v>0.274</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>0.1111</v>
+        <v>0.125</v>
       </c>
       <c r="H4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>0.125</v>
+        <v>0.1429</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0.2299</v>
+        <v>0.2597</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>0</v>
@@ -5283,37 +5295,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.14285</v>
+        <v>0</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0456666666666667</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0456666666666667</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0456666666666667</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.14285</v>
+        <v>0.137</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0456666666666667</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0456666666666667</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0456666666666667</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.14285</v>
+        <v>0.137</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.5714</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="5">
@@ -8564,12 +8576,8 @@
       </c>
       <c r="K3" s="119"/>
       <c r="L3" s="119"/>
-      <c r="M3" s="119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="119" t="n">
-        <v>1</v>
-      </c>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
       <c r="O3" s="119" t="n">
         <v>1</v>
       </c>
@@ -8768,7 +8776,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.0735</v>
+        <v>0.0727</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8839,7 +8847,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0735</v>
+        <v>0.0727</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8910,7 +8918,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0735</v>
+        <v>0.0727</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8934,37 +8942,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.0147</v>
+        <v>0</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.0441</v>
+        <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.0441</v>
+        <v>0.03635</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0147</v>
+        <v>0.0121166666666667</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.0441</v>
+        <v>0.03635</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.1764</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="5">
@@ -8980,7 +8988,9 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -9031,7 +9041,9 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -9098,64 +9110,52 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L7" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="12" t="n">
-        <v>0.2128</v>
+        <v>1</v>
       </c>
       <c r="O7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="12" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -9172,10 +9172,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0</v>
+        <v>0.1724</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="12" t="n">
-        <v>0.225</v>
+        <v>0.25</v>
       </c>
       <c r="L8" s="12" t="n">
         <v>0</v>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="12" t="n">
-        <v>0.19152</v>
+        <v>0.2128</v>
       </c>
       <c r="O8" s="12" t="n">
         <v>0</v>
@@ -9226,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="12" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -9243,61 +9243,132 @@
         <v>41</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0</v>
+        <v>0.1724</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="n">
+        <v>0.19152</v>
+      </c>
+      <c r="O9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>0.1724</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="12" t="n">
-        <v>0</v>
+      <c r="G10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="12" t="n">
+        <v>0.1754</v>
+      </c>
+      <c r="O10" s="12" t="n">
+        <v>0.0287333333333333</v>
+      </c>
+      <c r="P10" s="12" t="n">
+        <v>0.0287333333333333</v>
+      </c>
+      <c r="Q10" s="12" t="n">
+        <v>0.0287333333333333</v>
+      </c>
+      <c r="R10" s="12" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="S10" s="12" t="n">
+        <v>0.0287333333333333</v>
+      </c>
+      <c r="T10" s="12" t="n">
+        <v>0.0287333333333333</v>
+      </c>
+      <c r="U10" s="12" t="n">
+        <v>0.0287333333333333</v>
+      </c>
+      <c r="V10" s="12" t="n">
+        <v>0.0862</v>
+      </c>
+      <c r="W10" s="12" t="n">
+        <v>0.3448</v>
       </c>
     </row>
   </sheetData>
@@ -9485,12 +9556,8 @@
       </c>
       <c r="K3" s="120"/>
       <c r="L3" s="120"/>
-      <c r="M3" s="120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="120" t="n">
-        <v>1</v>
-      </c>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
       <c r="O3" s="120" t="n">
         <v>1</v>
       </c>
@@ -9623,10 +9690,18 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
+      <c r="G2" s="121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="121" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" s="121" t="n">
         <v>0</v>
       </c>
@@ -9664,67 +9739,6 @@
         <v>0</v>
       </c>
       <c r="W2" s="121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="121" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9824,63 +9838,270 @@
         <v>152</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="122" t="n">
+      <c r="E2" s="123" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="122" t="n">
+      <c r="G2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9892,66 +10113,66 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="122" t="n">
+      <c r="E3" s="123" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="122" t="n">
+      <c r="G3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9963,66 +10184,210 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="122" t="n">
+      <c r="E4" s="123" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="122" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="122" t="n">
+      <c r="G4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10533,7 +10898,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.051</v>
+        <v>0.0513</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10604,7 +10969,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.051</v>
+        <v>0.0513</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10675,7 +11040,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.051</v>
+        <v>0.0513</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10699,37 +11064,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0.0102</v>
+        <v>0</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0.0306</v>
+        <v>0</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.0102</v>
+        <v>0.00855</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0102</v>
+        <v>0.00855</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0102</v>
+        <v>0.00855</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.0306</v>
+        <v>0.02565</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0102</v>
+        <v>0.00855</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0102</v>
+        <v>0.00855</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0102</v>
+        <v>0.00855</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.0306</v>
+        <v>0.02565</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.1224</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="5">
@@ -11692,12 +12057,8 @@
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="17" t="n">
         <v>1</v>
       </c>
@@ -13456,7 +13817,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>0</v>
+        <v>0.5556</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13527,7 +13888,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>0</v>
+        <v>0.5556</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13598,7 +13959,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0</v>
+        <v>0.5556</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13622,37 +13983,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="22" t="n">
-        <v>0</v>
+        <v>0.5882</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0</v>
+        <v>0.0926</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0</v>
+        <v>0.0926</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0</v>
+        <v>0.0926</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0</v>
+        <v>0.2778</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0</v>
+        <v>0.0926</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0</v>
+        <v>0.0926</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0</v>
+        <v>0.0926</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0</v>
+        <v>0.2778</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>0</v>
+        <v>1.1112</v>
       </c>
     </row>
   </sheetData>
@@ -13920,37 +14281,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="23" t="n">
-        <v>0.0153833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="23" t="n">
-        <v>0.04615</v>
+        <v>0</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0128166666666667</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0128166666666667</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0128166666666667</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0.04615</v>
+        <v>0.03845</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0128166666666667</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0128166666666667</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0128166666666667</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0.04615</v>
+        <v>0.03845</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>0.1846</v>
+        <v>0.1538</v>
       </c>
     </row>
     <row r="5">
@@ -14328,37 +14689,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="24" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="24" t="n">
-        <v>0.14285</v>
+        <v>0</v>
       </c>
       <c r="O4" s="24" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="Q4" s="24" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="R4" s="24" t="n">
-        <v>0.14285</v>
+        <v>0.11905</v>
       </c>
       <c r="S4" s="24" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="T4" s="24" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="U4" s="24" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="V4" s="24" t="n">
-        <v>0.14285</v>
+        <v>0.11905</v>
       </c>
       <c r="W4" s="24" t="n">
-        <v>0.5714</v>
+        <v>0.4762</v>
       </c>
     </row>
     <row r="5">
@@ -14390,12 +14751,8 @@
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
-      <c r="M5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="24" t="n">
         <v>1</v>
       </c>
@@ -14523,7 +14880,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0.0847</v>
+        <v>0.0855</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14594,7 +14951,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0.0847</v>
+        <v>0.0855</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -14665,7 +15022,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0.0847</v>
+        <v>0.0855</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14689,37 +15046,37 @@
         <v>0.0909</v>
       </c>
       <c r="M4" s="25" t="n">
-        <v>0.0169416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="25" t="n">
-        <v>0.050825</v>
+        <v>0.0885</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="P4" s="25" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="Q4" s="25" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="R4" s="25" t="n">
-        <v>0.050825</v>
+        <v>0.04275</v>
       </c>
       <c r="S4" s="25" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="T4" s="25" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="U4" s="25" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>0.050825</v>
+        <v>0.04275</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>0.2033</v>
+        <v>0.171</v>
       </c>
     </row>
   </sheetData>
@@ -15754,6 +16111,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="28" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -16449,7 +16865,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.0943</v>
+        <v>0.1905</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -16520,7 +16936,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0.0943</v>
+        <v>0.1905</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -16591,7 +17007,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0.0943</v>
+        <v>0.1905</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -16615,37 +17031,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="30" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.1</v>
       </c>
       <c r="N4" s="30" t="n">
-        <v>0.056575</v>
+        <v>0.0935</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.03175</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.03175</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.03175</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0.056575</v>
+        <v>0.09525</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.03175</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.03175</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.03175</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0.056575</v>
+        <v>0.09525</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0.2263</v>
+        <v>0.381</v>
       </c>
     </row>
   </sheetData>
@@ -19206,9 +19622,7 @@
       <c r="L4" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="38" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="38"/>
       <c r="N4" s="38" t="n">
         <v>0</v>
       </c>
@@ -20977,7 +21391,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="44" t="n">
-        <v>0.0414</v>
+        <v>0.0591</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -21048,7 +21462,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="44" t="n">
-        <v>0.0414</v>
+        <v>0.0591</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -21119,7 +21533,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="44" t="n">
-        <v>0.0414</v>
+        <v>0.0591</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -21131,49 +21545,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="44" t="n">
+        <v>0.0084</v>
+      </c>
+      <c r="J4" s="44" t="n">
         <v>0.0083</v>
       </c>
-      <c r="J4" s="44" t="n">
-        <v>0.0082</v>
-      </c>
       <c r="K4" s="44" t="n">
-        <v>0.0168</v>
+        <v>0.0171</v>
       </c>
       <c r="L4" s="44" t="n">
-        <v>0.0169</v>
+        <v>0.0172</v>
       </c>
       <c r="M4" s="44" t="n">
-        <v>0.00828333333333333</v>
+        <v>0.0171</v>
       </c>
       <c r="N4" s="44" t="n">
-        <v>0.02485</v>
+        <v>0.0514</v>
       </c>
       <c r="O4" s="44" t="n">
-        <v>0.00828333333333333</v>
+        <v>0.00985</v>
       </c>
       <c r="P4" s="44" t="n">
-        <v>0.00828333333333333</v>
+        <v>0.00985</v>
       </c>
       <c r="Q4" s="44" t="n">
-        <v>0.00828333333333333</v>
+        <v>0.00985</v>
       </c>
       <c r="R4" s="44" t="n">
-        <v>0.02485</v>
+        <v>0.02955</v>
       </c>
       <c r="S4" s="44" t="n">
-        <v>0.00828333333333333</v>
+        <v>0.00985</v>
       </c>
       <c r="T4" s="44" t="n">
-        <v>0.00828333333333333</v>
+        <v>0.00985</v>
       </c>
       <c r="U4" s="44" t="n">
-        <v>0.00828333333333333</v>
+        <v>0.00985</v>
       </c>
       <c r="V4" s="44" t="n">
-        <v>0.02485</v>
+        <v>0.02955</v>
       </c>
       <c r="W4" s="44" t="n">
-        <v>0.0994</v>
+        <v>0.1182</v>
       </c>
     </row>
     <row r="5">
@@ -21331,9 +21745,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="44"/>
-      <c r="M7" s="44" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="44"/>
       <c r="N7" s="44" t="n">
         <v>1</v>
       </c>
@@ -21464,7 +21876,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="45" t="n">
-        <v>0.3571</v>
+        <v>0.3704</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -21535,7 +21947,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="45" t="n">
-        <v>0.3571</v>
+        <v>0.3704</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -21606,7 +22018,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="45" t="n">
-        <v>0.3571</v>
+        <v>0.3704</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -21630,37 +22042,37 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="45" t="n">
-        <v>0.0714166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>0.21425</v>
+        <v>0.4348</v>
       </c>
       <c r="O4" s="45" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="P4" s="45" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="Q4" s="45" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="R4" s="45" t="n">
-        <v>0.21425</v>
+        <v>0.1852</v>
       </c>
       <c r="S4" s="45" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="T4" s="45" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="U4" s="45" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="V4" s="45" t="n">
-        <v>0.21425</v>
+        <v>0.1852</v>
       </c>
       <c r="W4" s="45" t="n">
-        <v>0.857</v>
+        <v>0.7408</v>
       </c>
     </row>
   </sheetData>
@@ -22965,7 +23377,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="49" t="n">
-        <v>0.1351</v>
+        <v>0.1333</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -23036,7 +23448,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="49" t="n">
-        <v>0.1351</v>
+        <v>0.1333</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -23107,7 +23519,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="49" t="n">
-        <v>0.1351</v>
+        <v>0.1333</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -23131,37 +23543,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="49" t="n">
-        <v>0.0270166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="49" t="n">
-        <v>0.08105</v>
+        <v>0</v>
       </c>
       <c r="O4" s="49" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="P4" s="49" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="Q4" s="49" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="R4" s="49" t="n">
-        <v>0.08105</v>
+        <v>0.06665</v>
       </c>
       <c r="S4" s="49" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="T4" s="49" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="U4" s="49" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="V4" s="49" t="n">
-        <v>0.08105</v>
+        <v>0.06665</v>
       </c>
       <c r="W4" s="49" t="n">
-        <v>0.3242</v>
+        <v>0.2666</v>
       </c>
     </row>
     <row r="5">
@@ -23193,12 +23605,8 @@
       </c>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
-      <c r="M5" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="49" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="49" t="n">
         <v>1</v>
       </c>
@@ -24511,7 +24919,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="52" t="n">
-        <v>0.0692</v>
+        <v>0.0698</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -24582,7 +24990,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="52" t="n">
-        <v>0.0692</v>
+        <v>0.0698</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -24653,22 +25061,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="52" t="n">
-        <v>0.0692</v>
+        <v>0.0698</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="52" t="n">
-        <v>0.0179</v>
+        <v>0.0122</v>
       </c>
       <c r="H4" s="52" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="52" t="n">
-        <v>0.0526</v>
+        <v>0.0353</v>
       </c>
       <c r="J4" s="52" t="n">
-        <v>0.0698</v>
+        <v>0.0472</v>
       </c>
       <c r="K4" s="52" t="n">
         <v>0</v>
@@ -24677,37 +25085,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="52" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.0227</v>
       </c>
       <c r="N4" s="52" t="n">
-        <v>0.041525</v>
+        <v>0.0229</v>
       </c>
       <c r="O4" s="52" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="P4" s="52" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="Q4" s="52" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="R4" s="52" t="n">
-        <v>0.041525</v>
+        <v>0.0349</v>
       </c>
       <c r="S4" s="52" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="T4" s="52" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="U4" s="52" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="V4" s="52" t="n">
-        <v>0.041525</v>
+        <v>0.0349</v>
       </c>
       <c r="W4" s="52" t="n">
-        <v>0.1661</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="5">
@@ -24933,7 +25341,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="53" t="n">
-        <v>0.0355</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -25004,7 +25412,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="53" t="n">
-        <v>0.0355</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -25075,7 +25483,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="53" t="n">
-        <v>0.0355</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -25086,50 +25494,40 @@
       <c r="H4" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="53" t="n">
-        <v>0.0357</v>
-      </c>
+      <c r="I4" s="53"/>
       <c r="J4" s="53" t="n">
-        <v>0.0357</v>
-      </c>
-      <c r="K4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="53" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="N4" s="53" t="n">
-        <v>0.0213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
       <c r="O4" s="53" t="n">
-        <v>0.0071</v>
+        <v>0</v>
       </c>
       <c r="P4" s="53" t="n">
-        <v>0.0071</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="53" t="n">
-        <v>0.0071</v>
+        <v>0</v>
       </c>
       <c r="R4" s="53" t="n">
-        <v>0.0213</v>
+        <v>0</v>
       </c>
       <c r="S4" s="53" t="n">
-        <v>0.0071</v>
+        <v>0</v>
       </c>
       <c r="T4" s="53" t="n">
-        <v>0.0071</v>
+        <v>0</v>
       </c>
       <c r="U4" s="53" t="n">
-        <v>0.0071</v>
+        <v>0</v>
       </c>
       <c r="V4" s="53" t="n">
-        <v>0.0213</v>
+        <v>0</v>
       </c>
       <c r="W4" s="53" t="n">
-        <v>0.0852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -25937,7 +26335,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="56" t="n">
-        <v>0.1471</v>
+        <v>0.1493</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -26008,7 +26406,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="56" t="n">
-        <v>0.1471</v>
+        <v>0.1493</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -26079,7 +26477,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="56" t="n">
-        <v>0.1471</v>
+        <v>0.1493</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -26103,37 +26501,37 @@
         <v>0.1667</v>
       </c>
       <c r="M4" s="56" t="n">
-        <v>0.0294166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="56" t="n">
-        <v>0.08825</v>
+        <v>0.1587</v>
       </c>
       <c r="O4" s="56" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="P4" s="56" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="Q4" s="56" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="R4" s="56" t="n">
-        <v>0.08825</v>
+        <v>0.07465</v>
       </c>
       <c r="S4" s="56" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="T4" s="56" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="U4" s="56" t="n">
-        <v>0.0294166666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="V4" s="56" t="n">
-        <v>0.08825</v>
+        <v>0.07465</v>
       </c>
       <c r="W4" s="56" t="n">
-        <v>0.353</v>
+        <v>0.2986</v>
       </c>
     </row>
   </sheetData>
@@ -27057,9 +27455,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="59"/>
-      <c r="M5" s="59" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" s="59"/>
       <c r="N5" s="59" t="n">
         <v>0</v>
       </c>
@@ -27532,12 +27928,8 @@
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="6" t="n">
         <v>1</v>
       </c>
@@ -28528,12 +28920,8 @@
       </c>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
-      <c r="M7" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="62" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="62" t="n">
         <v>1</v>
       </c>
@@ -29096,12 +29484,8 @@
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
-      <c r="M5" s="63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="63" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
       <c r="O5" s="63" t="n">
         <v>1</v>
       </c>
@@ -31113,7 +31497,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="70" t="n">
-        <v>0.0368</v>
+        <v>0.0529</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -31184,7 +31568,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="70" t="n">
-        <v>0.0368</v>
+        <v>0.0529</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -31255,61 +31639,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="70" t="n">
-        <v>0.0368</v>
+        <v>0.0529</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="70" t="n">
-        <v>0.0158</v>
+        <v>0.0159</v>
       </c>
       <c r="H4" s="70" t="n">
-        <v>0.0052</v>
+        <v>0.0053</v>
       </c>
       <c r="I4" s="70" t="n">
         <v>0.0053</v>
       </c>
       <c r="J4" s="70" t="n">
-        <v>0.0262</v>
+        <v>0.0265</v>
       </c>
       <c r="K4" s="70" t="n">
-        <v>0.0079</v>
+        <v>0.008</v>
       </c>
       <c r="L4" s="70" t="n">
-        <v>0.0026</v>
+        <v>0.0053</v>
       </c>
       <c r="M4" s="70" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.0131</v>
       </c>
       <c r="N4" s="70" t="n">
-        <v>0.022075</v>
+        <v>0.0264</v>
       </c>
       <c r="O4" s="70" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="P4" s="70" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="Q4" s="70" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="R4" s="70" t="n">
-        <v>0.022075</v>
+        <v>0.02645</v>
       </c>
       <c r="S4" s="70" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="T4" s="70" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="U4" s="70" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.00881666666666667</v>
       </c>
       <c r="V4" s="70" t="n">
-        <v>0.022075</v>
+        <v>0.02645</v>
       </c>
       <c r="W4" s="70" t="n">
-        <v>0.0883</v>
+        <v>0.1058</v>
       </c>
     </row>
     <row r="5">
@@ -31326,7 +31710,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -31397,7 +31781,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -31468,7 +31852,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -31492,37 +31876,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0</v>
       </c>
       <c r="N7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.2857</v>
       </c>
       <c r="O7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="P7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="Q7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="R7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="S7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="T7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="U7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="V7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="W7" s="70" t="n">
-        <v>0.458333333333333</v>
+        <v>0.423076923076923</v>
       </c>
     </row>
     <row r="8">
@@ -31539,7 +31923,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="70" t="n">
-        <v>1.4583</v>
+        <v>1.0909</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -31610,7 +31994,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="70" t="n">
-        <v>1.4583</v>
+        <v>1.0909</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -31681,7 +32065,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="70" t="n">
-        <v>1.4583</v>
+        <v>1.0909</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -31702,40 +32086,40 @@
         <v>0.2</v>
       </c>
       <c r="L10" s="70" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="M10" s="70" t="n">
-        <v>0.291658333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="70" t="n">
-        <v>0.874975</v>
+        <v>0.8333</v>
       </c>
       <c r="O10" s="70" t="n">
-        <v>0.291658333333333</v>
+        <v>0.181816666666667</v>
       </c>
       <c r="P10" s="70" t="n">
-        <v>0.291658333333333</v>
+        <v>0.181816666666667</v>
       </c>
       <c r="Q10" s="70" t="n">
-        <v>0.291658333333333</v>
+        <v>0.181816666666667</v>
       </c>
       <c r="R10" s="70" t="n">
-        <v>0.874975</v>
+        <v>0.54545</v>
       </c>
       <c r="S10" s="70" t="n">
-        <v>0.291658333333333</v>
+        <v>0.181816666666667</v>
       </c>
       <c r="T10" s="70" t="n">
-        <v>0.291658333333333</v>
+        <v>0.181816666666667</v>
       </c>
       <c r="U10" s="70" t="n">
-        <v>0.291658333333333</v>
+        <v>0.181816666666667</v>
       </c>
       <c r="V10" s="70" t="n">
-        <v>0.874975</v>
+        <v>0.54545</v>
       </c>
       <c r="W10" s="70" t="n">
-        <v>3.4999</v>
+        <v>2.1818</v>
       </c>
     </row>
   </sheetData>
@@ -32170,7 +32554,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="72" t="n">
-        <v>0.0435</v>
+        <v>0.0465</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -32241,7 +32625,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="72" t="n">
-        <v>0.0435</v>
+        <v>0.0465</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -32312,7 +32696,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="72" t="n">
-        <v>0.0435</v>
+        <v>0.0465</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -32336,37 +32720,37 @@
         <v>0.0455</v>
       </c>
       <c r="M4" s="72" t="n">
-        <v>0.0087</v>
+        <v>0</v>
       </c>
       <c r="N4" s="72" t="n">
-        <v>0.0261</v>
+        <v>0.0508</v>
       </c>
       <c r="O4" s="72" t="n">
-        <v>0.0087</v>
+        <v>0.00775</v>
       </c>
       <c r="P4" s="72" t="n">
-        <v>0.0087</v>
+        <v>0.00775</v>
       </c>
       <c r="Q4" s="72" t="n">
-        <v>0.0087</v>
+        <v>0.00775</v>
       </c>
       <c r="R4" s="72" t="n">
-        <v>0.0261</v>
+        <v>0.02325</v>
       </c>
       <c r="S4" s="72" t="n">
-        <v>0.0087</v>
+        <v>0.00775</v>
       </c>
       <c r="T4" s="72" t="n">
-        <v>0.0087</v>
+        <v>0.00775</v>
       </c>
       <c r="U4" s="72" t="n">
-        <v>0.0087</v>
+        <v>0.00775</v>
       </c>
       <c r="V4" s="72" t="n">
-        <v>0.0261</v>
+        <v>0.02325</v>
       </c>
       <c r="W4" s="72" t="n">
-        <v>0.1044</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="5">
@@ -33588,7 +33972,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="77" t="n">
-        <v>0.098</v>
+        <v>0.0893</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -33659,7 +34043,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="77" t="n">
-        <v>0.098</v>
+        <v>0.0893</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -33730,7 +34114,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="77" t="n">
-        <v>0.098</v>
+        <v>0.0893</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -33739,13 +34123,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="77" t="n">
-        <v>0.1</v>
+        <v>0.0909</v>
       </c>
       <c r="I4" s="77" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="77" t="n">
-        <v>0.0971</v>
+        <v>0.0885</v>
       </c>
       <c r="K4" s="77" t="n">
         <v>0</v>
@@ -33754,37 +34138,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="77" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="N4" s="77" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="O4" s="77" t="n">
-        <v>0.0196</v>
+        <v>0.0148833333333333</v>
       </c>
       <c r="P4" s="77" t="n">
-        <v>0.0196</v>
+        <v>0.0148833333333333</v>
       </c>
       <c r="Q4" s="77" t="n">
-        <v>0.0196</v>
+        <v>0.0148833333333333</v>
       </c>
       <c r="R4" s="77" t="n">
-        <v>0.0588</v>
+        <v>0.04465</v>
       </c>
       <c r="S4" s="77" t="n">
-        <v>0.0196</v>
+        <v>0.0148833333333333</v>
       </c>
       <c r="T4" s="77" t="n">
-        <v>0.0196</v>
+        <v>0.0148833333333333</v>
       </c>
       <c r="U4" s="77" t="n">
-        <v>0.0196</v>
+        <v>0.0148833333333333</v>
       </c>
       <c r="V4" s="77" t="n">
-        <v>0.0588</v>
+        <v>0.04465</v>
       </c>
       <c r="W4" s="77" t="n">
-        <v>0.2352</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="5">
@@ -33930,12 +34314,8 @@
       </c>
       <c r="K7" s="77"/>
       <c r="L7" s="77"/>
-      <c r="M7" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="77" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
       <c r="O7" s="77" t="n">
         <v>1</v>
       </c>
@@ -33978,7 +34358,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="77" t="n">
-        <v>0.1351</v>
+        <v>0.2439</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -34049,7 +34429,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="77" t="n">
-        <v>0.1351</v>
+        <v>0.2439</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -34120,7 +34500,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="77" t="n">
-        <v>0.1351</v>
+        <v>0.2439</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -34132,49 +34512,49 @@
         <v>0</v>
       </c>
       <c r="I10" s="77" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J10" s="77" t="n">
+        <v>0.1149</v>
+      </c>
+      <c r="K10" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="77" t="n">
         <v>0.1429</v>
       </c>
-      <c r="J10" s="77" t="n">
+      <c r="N10" s="77" t="n">
         <v>0.1299</v>
       </c>
-      <c r="K10" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="77" t="n">
-        <v>0.0270166666666667</v>
-      </c>
-      <c r="N10" s="77" t="n">
-        <v>0.08105</v>
-      </c>
       <c r="O10" s="77" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.04065</v>
       </c>
       <c r="P10" s="77" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.04065</v>
       </c>
       <c r="Q10" s="77" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.04065</v>
       </c>
       <c r="R10" s="77" t="n">
-        <v>0.08105</v>
+        <v>0.12195</v>
       </c>
       <c r="S10" s="77" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.04065</v>
       </c>
       <c r="T10" s="77" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.04065</v>
       </c>
       <c r="U10" s="77" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.04065</v>
       </c>
       <c r="V10" s="77" t="n">
-        <v>0.08105</v>
+        <v>0.12195</v>
       </c>
       <c r="W10" s="77" t="n">
-        <v>0.3242</v>
+        <v>0.4878</v>
       </c>
     </row>
   </sheetData>
@@ -38494,12 +38874,8 @@
       </c>
       <c r="K7" s="88"/>
       <c r="L7" s="88"/>
-      <c r="M7" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="88" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
       <c r="O7" s="88" t="n">
         <v>1</v>
       </c>
@@ -38708,37 +39084,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="88" t="n">
-        <v>0.00305833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="88" t="n">
-        <v>0.009175</v>
+        <v>0.0076</v>
       </c>
       <c r="O10" s="88" t="n">
-        <v>0.00305833333333333</v>
+        <v>0.00255</v>
       </c>
       <c r="P10" s="88" t="n">
-        <v>0.00305833333333333</v>
+        <v>0.00255</v>
       </c>
       <c r="Q10" s="88" t="n">
-        <v>0.00305833333333333</v>
+        <v>0.00255</v>
       </c>
       <c r="R10" s="88" t="n">
-        <v>0.009175</v>
+        <v>0.00765</v>
       </c>
       <c r="S10" s="88" t="n">
-        <v>0.00305833333333333</v>
+        <v>0.00255</v>
       </c>
       <c r="T10" s="88" t="n">
-        <v>0.00305833333333333</v>
+        <v>0.00255</v>
       </c>
       <c r="U10" s="88" t="n">
-        <v>0.00305833333333333</v>
+        <v>0.00255</v>
       </c>
       <c r="V10" s="88" t="n">
-        <v>0.009175</v>
+        <v>0.00765</v>
       </c>
       <c r="W10" s="88" t="n">
-        <v>0.0367</v>
+        <v>0.0306</v>
       </c>
     </row>
   </sheetData>
@@ -41029,37 +41405,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="94" t="n">
-        <v>0.00878333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="94" t="n">
-        <v>0.02635</v>
+        <v>0.0441</v>
       </c>
       <c r="O4" s="94" t="n">
-        <v>0.00878333333333333</v>
+        <v>0.00731666666666667</v>
       </c>
       <c r="P4" s="94" t="n">
-        <v>0.00878333333333333</v>
+        <v>0.00731666666666667</v>
       </c>
       <c r="Q4" s="94" t="n">
-        <v>0.00878333333333333</v>
+        <v>0.00731666666666667</v>
       </c>
       <c r="R4" s="94" t="n">
-        <v>0.02635</v>
+        <v>0.02195</v>
       </c>
       <c r="S4" s="94" t="n">
-        <v>0.00878333333333333</v>
+        <v>0.00731666666666667</v>
       </c>
       <c r="T4" s="94" t="n">
-        <v>0.00878333333333333</v>
+        <v>0.00731666666666667</v>
       </c>
       <c r="U4" s="94" t="n">
-        <v>0.00878333333333333</v>
+        <v>0.00731666666666667</v>
       </c>
       <c r="V4" s="94" t="n">
-        <v>0.02635</v>
+        <v>0.02195</v>
       </c>
       <c r="W4" s="94" t="n">
-        <v>0.1054</v>
+        <v>0.0878</v>
       </c>
     </row>
     <row r="5">
@@ -41276,9 +41652,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="95" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="95"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -41347,9 +41721,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="95" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="95"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -41403,77 +41775,6 @@
       </c>
       <c r="W3" s="95" t="n">
         <v>0.25002</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="95" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -42243,12 +42544,8 @@
       </c>
       <c r="K7" s="97"/>
       <c r="L7" s="97"/>
-      <c r="M7" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="97" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
       <c r="O7" s="97" t="n">
         <v>0</v>
       </c>
@@ -42674,7 +42971,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="99" t="n">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -42745,7 +43042,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="99" t="n">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -42816,7 +43113,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="99" t="n">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -42840,37 +43137,37 @@
         <v>0.0417</v>
       </c>
       <c r="M4" s="99" t="n">
-        <v>0.0238</v>
+        <v>0</v>
       </c>
       <c r="N4" s="99" t="n">
-        <v>0.0714</v>
+        <v>0.0823</v>
       </c>
       <c r="O4" s="99" t="n">
-        <v>0.0238</v>
+        <v>0.02</v>
       </c>
       <c r="P4" s="99" t="n">
-        <v>0.0238</v>
+        <v>0.02</v>
       </c>
       <c r="Q4" s="99" t="n">
-        <v>0.0238</v>
+        <v>0.02</v>
       </c>
       <c r="R4" s="99" t="n">
-        <v>0.0714</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="99" t="n">
-        <v>0.0238</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="99" t="n">
-        <v>0.0238</v>
+        <v>0.02</v>
       </c>
       <c r="U4" s="99" t="n">
-        <v>0.0238</v>
+        <v>0.02</v>
       </c>
       <c r="V4" s="99" t="n">
-        <v>0.0714</v>
+        <v>0.06</v>
       </c>
       <c r="W4" s="99" t="n">
-        <v>0.2856</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_IPS Segment Functions.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Segment Functions.xlsx
@@ -128,14 +128,15 @@
     <sheet name="Milwaukee Wisconsin" sheetId="120" state="visible" r:id="rId120"/>
     <sheet name="Shanghai Xuhui China" sheetId="121" state="visible" r:id="rId121"/>
     <sheet name="Singapore" sheetId="122" state="visible" r:id="rId122"/>
-    <sheet name="Sao Paulo Brazil" sheetId="123" state="visible" r:id="rId123"/>
-    <sheet name="Charlotte  North Carolina" sheetId="124" state="visible" r:id="rId124"/>
+    <sheet name="Ciserano Italy" sheetId="123" state="visible" r:id="rId123"/>
+    <sheet name="Sao Paulo Brazil" sheetId="124" state="visible" r:id="rId124"/>
+    <sheet name="Charlotte  North Carolina" sheetId="125" state="visible" r:id="rId125"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -596,6 +597,9 @@
     <t xml:space="preserve">Singapore</t>
   </si>
   <si>
+    <t xml:space="preserve">Ciserano Italy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sao Paulo Brazil</t>
   </si>
   <si>
@@ -606,7 +610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="124">
+  <numFmts count="125">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -731,6 +735,7 @@
     <numFmt numFmtId="286" formatCode="0.0%"/>
     <numFmt numFmtId="287" formatCode="0.0%"/>
     <numFmt numFmtId="288" formatCode="0.0%"/>
+    <numFmt numFmtId="289" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -766,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -892,6 +897,7 @@
     <xf numFmtId="286" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="287" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="288" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="289" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2274,7 +2280,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="101" t="n">
-        <v>0.2857</v>
+        <v>0.4167</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2345,7 +2351,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="101" t="n">
-        <v>0.2857</v>
+        <v>0.4167</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2416,7 +2422,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="101" t="n">
-        <v>0.2857</v>
+        <v>0.4167</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2434,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="101" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="101" t="n">
         <v>0</v>
@@ -2443,34 +2449,34 @@
         <v>0</v>
       </c>
       <c r="N4" s="101" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="101" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="101" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="101" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="101" t="n">
-        <v>0.14285</v>
+        <v>0</v>
       </c>
       <c r="S4" s="101" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="101" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="101" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="101" t="n">
-        <v>0.14285</v>
+        <v>0</v>
       </c>
       <c r="W4" s="101" t="n">
-        <v>0.5714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2992,31 +2998,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="102" t="n">
-        <v>0.0724666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="102" t="n">
-        <v>0.0724666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="102" t="n">
-        <v>0.0724666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="102" t="n">
-        <v>0.2174</v>
+        <v>0</v>
       </c>
       <c r="S4" s="102" t="n">
-        <v>0.0724666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="102" t="n">
-        <v>0.0724666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="102" t="n">
-        <v>0.0724666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="102" t="n">
-        <v>0.2174</v>
+        <v>0</v>
       </c>
       <c r="W4" s="102" t="n">
-        <v>0.8696</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +4241,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="107" t="n">
-        <v>0.1</v>
+        <v>0.1031</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4306,7 +4312,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="107" t="n">
-        <v>0.1</v>
+        <v>0.1031</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4377,7 +4383,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="107" t="n">
-        <v>0.1</v>
+        <v>0.1031</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4407,31 +4413,31 @@
         <v>0.1</v>
       </c>
       <c r="O4" s="107" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="107" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="107" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="107" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S4" s="107" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="107" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="107" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="107" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="W4" s="107" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +5135,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.274</v>
+        <v>0.4651</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5200,7 +5206,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.274</v>
+        <v>0.4651</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5271,22 +5277,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.274</v>
+        <v>0.4651</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="H4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0.2597</v>
+        <v>0.4255</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>0</v>
@@ -5301,31 +5307,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.0456666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.0456666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.0456666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.0456666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.0456666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.0456666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5451,9 +5457,7 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E7" s="11"/>
       <c r="F7" t="s">
         <v>27</v>
       </c>
@@ -5522,9 +5526,7 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E8" s="11"/>
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -5577,77 +5579,6 @@
         <v>0</v>
       </c>
       <c r="W8" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8578,9 +8509,7 @@
       <c r="L3" s="119"/>
       <c r="M3" s="119"/>
       <c r="N3" s="119"/>
-      <c r="O3" s="119" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3" s="119"/>
       <c r="P3" s="119" t="n">
         <v>1</v>
       </c>
@@ -8776,7 +8705,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.0727</v>
+        <v>0.0697</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8847,7 +8776,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0727</v>
+        <v>0.0697</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8918,7 +8847,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0727</v>
+        <v>0.0697</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8930,10 +8859,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>0.0769</v>
+        <v>0.0741</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0.0733</v>
+        <v>0.0707</v>
       </c>
       <c r="K4" s="12" t="n">
         <v>0</v>
@@ -8948,31 +8877,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0121166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0121166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0121166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.03635</v>
+        <v>0</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0121166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0121166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0121166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.03635</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.1454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9130,9 +9059,7 @@
       <c r="N7" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="12"/>
       <c r="P7" s="12" t="n">
         <v>1</v>
       </c>
@@ -9172,7 +9099,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.1724</v>
+        <v>0.1754</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -9243,7 +9170,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.1724</v>
+        <v>0.1754</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -9314,7 +9241,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>0.1724</v>
+        <v>0.1754</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -9344,31 +9271,31 @@
         <v>0.1754</v>
       </c>
       <c r="O10" s="12" t="n">
-        <v>0.0287333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="12" t="n">
-        <v>0.0287333333333333</v>
+        <v>0.0250583333333333</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>0.0287333333333333</v>
+        <v>0.0250583333333333</v>
       </c>
       <c r="R10" s="12" t="n">
-        <v>0.0862</v>
+        <v>0.075175</v>
       </c>
       <c r="S10" s="12" t="n">
-        <v>0.0287333333333333</v>
+        <v>0.0250583333333333</v>
       </c>
       <c r="T10" s="12" t="n">
-        <v>0.0287333333333333</v>
+        <v>0.0250583333333333</v>
       </c>
       <c r="U10" s="12" t="n">
-        <v>0.0287333333333333</v>
+        <v>0.0250583333333333</v>
       </c>
       <c r="V10" s="12" t="n">
-        <v>0.0862</v>
+        <v>0.075175</v>
       </c>
       <c r="W10" s="12" t="n">
-        <v>0.3448</v>
+        <v>0.3007</v>
       </c>
     </row>
   </sheetData>
@@ -9558,9 +9485,7 @@
       <c r="L3" s="120"/>
       <c r="M3" s="120"/>
       <c r="N3" s="120"/>
-      <c r="O3" s="120" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3" s="120"/>
       <c r="P3" s="120" t="n">
         <v>1</v>
       </c>
@@ -9921,9 +9846,7 @@
       <c r="N3" s="122" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="122" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" s="122"/>
       <c r="P3" s="122" t="n">
         <v>0</v>
       </c>
@@ -10045,38 +9968,22 @@
         <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E2" s="123" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="123" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="123" t="n">
         <v>0</v>
       </c>
@@ -10116,38 +10023,22 @@
         <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E3" s="123" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="123" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
       <c r="O3" s="123" t="n">
         <v>0</v>
       </c>
@@ -10173,77 +10064,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="123" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10349,45 +10169,343 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="124" t="n">
+      <c r="G4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10489,9 +10607,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="13"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -10560,9 +10676,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -10629,64 +10743,34 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E4" s="13"/>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
       <c r="W4" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -10704,98 +10788,57 @@
       </c>
       <c r="E5" s="13"/>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="13" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="13" t="n">
+        <v>0.5</v>
+      </c>
       <c r="N5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>0.5</v>
+      </c>
       <c r="W5" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="13" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -10898,7 +10941,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0513</v>
+        <v>0.0518</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10969,7 +11012,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0513</v>
+        <v>0.0518</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11040,7 +11083,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0513</v>
+        <v>0.0518</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11070,31 +11113,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.02565</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.02565</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.1026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12059,9 +12102,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="17"/>
       <c r="P5" s="17" t="n">
         <v>1</v>
       </c>
@@ -13817,7 +13858,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>0.5556</v>
+        <v>0.5882</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13888,7 +13929,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>0.5556</v>
+        <v>0.5882</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13959,7 +14000,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0.5556</v>
+        <v>0.5882</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13989,31 +14030,31 @@
         <v>0.5882</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0.0926</v>
+        <v>0</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0.0926</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0.0926</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0.2778</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0.0926</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0.0926</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0.0926</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0.2778</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>1.1112</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14287,31 +14328,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0.0128166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0.0128166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0.0128166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0.03845</v>
+        <v>0</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0.0128166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0.0128166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0.0128166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0.03845</v>
+        <v>0</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>0.1538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -14523,7 +14564,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>0.2381</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14594,7 +14635,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>0.2381</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -14665,7 +14706,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>0.2381</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14695,31 +14736,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="24" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="24" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="24" t="n">
-        <v>0.11905</v>
+        <v>0</v>
       </c>
       <c r="S4" s="24" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="24" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="24" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="24" t="n">
-        <v>0.11905</v>
+        <v>0</v>
       </c>
       <c r="W4" s="24" t="n">
-        <v>0.4762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -14753,9 +14794,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
-      <c r="O5" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="24"/>
       <c r="P5" s="24" t="n">
         <v>1</v>
       </c>
@@ -14880,7 +14919,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0.0855</v>
+        <v>0.0862</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14951,7 +14990,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0.0855</v>
+        <v>0.0862</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -15022,7 +15061,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0.0855</v>
+        <v>0.0862</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -15052,31 +15091,31 @@
         <v>0.0885</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="P4" s="25" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="25" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="R4" s="25" t="n">
-        <v>0.04275</v>
+        <v>0</v>
       </c>
       <c r="S4" s="25" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="T4" s="25" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="U4" s="25" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>0.04275</v>
+        <v>0</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>0.171</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16142,9 +16181,7 @@
       <c r="N5" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="28" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="28"/>
       <c r="P5" s="28" t="n">
         <v>1</v>
       </c>
@@ -16865,7 +16902,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.1905</v>
+        <v>0.1923</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -16936,7 +16973,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0.1905</v>
+        <v>0.1923</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -17007,7 +17044,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0.1905</v>
+        <v>0.1923</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -17037,31 +17074,31 @@
         <v>0.0935</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0.03175</v>
+        <v>0</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0.03175</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0.03175</v>
+        <v>0</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0.09525</v>
+        <v>0</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0.03175</v>
+        <v>0</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0.03175</v>
+        <v>0</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0.03175</v>
+        <v>0</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0.09525</v>
+        <v>0</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0.381</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19626,9 +19663,7 @@
       <c r="N4" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="38" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="38"/>
       <c r="P4" s="38" t="n">
         <v>0</v>
       </c>
@@ -21391,7 +21426,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="44" t="n">
-        <v>0.0591</v>
+        <v>0.0672</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -21462,7 +21497,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="44" t="n">
-        <v>0.0591</v>
+        <v>0.0672</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -21533,7 +21568,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="44" t="n">
-        <v>0.0591</v>
+        <v>0.0672</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -21545,49 +21580,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="44" t="n">
-        <v>0.0084</v>
+        <v>0.0083</v>
       </c>
       <c r="J4" s="44" t="n">
-        <v>0.0083</v>
+        <v>0.0082</v>
       </c>
       <c r="K4" s="44" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="L4" s="44" t="n">
         <v>0.0171</v>
       </c>
-      <c r="L4" s="44" t="n">
-        <v>0.0172</v>
-      </c>
       <c r="M4" s="44" t="n">
-        <v>0.0171</v>
+        <v>0.0169</v>
       </c>
       <c r="N4" s="44" t="n">
-        <v>0.0514</v>
+        <v>0.051</v>
       </c>
       <c r="O4" s="44" t="n">
-        <v>0.00985</v>
+        <v>0.0085</v>
       </c>
       <c r="P4" s="44" t="n">
-        <v>0.00985</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="44" t="n">
-        <v>0.00985</v>
+        <v>0</v>
       </c>
       <c r="R4" s="44" t="n">
-        <v>0.02955</v>
+        <v>0</v>
       </c>
       <c r="S4" s="44" t="n">
-        <v>0.00985</v>
+        <v>0</v>
       </c>
       <c r="T4" s="44" t="n">
-        <v>0.00985</v>
+        <v>0</v>
       </c>
       <c r="U4" s="44" t="n">
-        <v>0.00985</v>
+        <v>0</v>
       </c>
       <c r="V4" s="44" t="n">
-        <v>0.02955</v>
+        <v>0</v>
       </c>
       <c r="W4" s="44" t="n">
-        <v>0.1182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -21749,9 +21784,7 @@
       <c r="N7" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="44" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="44"/>
       <c r="P7" s="44" t="n">
         <v>1</v>
       </c>
@@ -21876,7 +21909,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="45" t="n">
-        <v>0.3704</v>
+        <v>0.3846</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -21947,7 +21980,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="45" t="n">
-        <v>0.3704</v>
+        <v>0.3846</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -22018,7 +22051,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="45" t="n">
-        <v>0.3704</v>
+        <v>0.3846</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -22048,31 +22081,31 @@
         <v>0.4348</v>
       </c>
       <c r="O4" s="45" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="45" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="45" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="45" t="n">
-        <v>0.1852</v>
+        <v>0</v>
       </c>
       <c r="S4" s="45" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="45" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="45" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="45" t="n">
-        <v>0.1852</v>
+        <v>0</v>
       </c>
       <c r="W4" s="45" t="n">
-        <v>0.7408</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22386,7 +22419,9 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -22427,7 +22462,9 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -22494,62 +22531,48 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="46"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="46" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
       <c r="O7" s="46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -22567,57 +22590,126 @@
       </c>
       <c r="E8" s="46"/>
       <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="46" t="n">
+      <c r="G9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22952,9 +23044,7 @@
       <c r="N5" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="47" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="47"/>
       <c r="P5" s="47" t="n">
         <v>1</v>
       </c>
@@ -23377,7 +23467,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="49" t="n">
-        <v>0.1333</v>
+        <v>0.1316</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -23448,7 +23538,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="49" t="n">
-        <v>0.1333</v>
+        <v>0.1316</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -23519,7 +23609,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="49" t="n">
-        <v>0.1333</v>
+        <v>0.1316</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -23549,31 +23639,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="49" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="49" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="49" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="49" t="n">
-        <v>0.06665</v>
+        <v>0</v>
       </c>
       <c r="S4" s="49" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="49" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="49" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="49" t="n">
-        <v>0.06665</v>
+        <v>0</v>
       </c>
       <c r="W4" s="49" t="n">
-        <v>0.2666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23607,9 +23697,7 @@
       <c r="L5" s="49"/>
       <c r="M5" s="49"/>
       <c r="N5" s="49"/>
-      <c r="O5" s="49" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="49"/>
       <c r="P5" s="49" t="n">
         <v>1</v>
       </c>
@@ -24919,7 +25007,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="52" t="n">
-        <v>0.0698</v>
+        <v>0.1047</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -24990,7 +25078,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="52" t="n">
-        <v>0.0698</v>
+        <v>0.1047</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -25061,7 +25149,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="52" t="n">
-        <v>0.0698</v>
+        <v>0.1047</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -25091,31 +25179,31 @@
         <v>0.0229</v>
       </c>
       <c r="O4" s="52" t="n">
-        <v>0.0116333333333333</v>
+        <v>0.0349</v>
       </c>
       <c r="P4" s="52" t="n">
-        <v>0.0116333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="52" t="n">
-        <v>0.0116333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="52" t="n">
-        <v>0.0349</v>
+        <v>0</v>
       </c>
       <c r="S4" s="52" t="n">
-        <v>0.0116333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="52" t="n">
-        <v>0.0116333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="52" t="n">
-        <v>0.0116333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="52" t="n">
-        <v>0.0349</v>
+        <v>0</v>
       </c>
       <c r="W4" s="52" t="n">
-        <v>0.1396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -25502,9 +25590,7 @@
       <c r="L4" s="53"/>
       <c r="M4" s="53"/>
       <c r="N4" s="53"/>
-      <c r="O4" s="53" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="53"/>
       <c r="P4" s="53" t="n">
         <v>0</v>
       </c>
@@ -26335,7 +26421,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="56" t="n">
-        <v>0.1493</v>
+        <v>0.1515</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -26406,7 +26492,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="56" t="n">
-        <v>0.1493</v>
+        <v>0.1515</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -26477,7 +26563,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="56" t="n">
-        <v>0.1493</v>
+        <v>0.1515</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -26507,31 +26593,86 @@
         <v>0.1587</v>
       </c>
       <c r="O4" s="56" t="n">
-        <v>0.0248833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="56" t="n">
-        <v>0.0248833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="56" t="n">
-        <v>0.0248833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="56" t="n">
-        <v>0.07465</v>
+        <v>0</v>
       </c>
       <c r="S4" s="56" t="n">
-        <v>0.0248833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="56" t="n">
-        <v>0.0248833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="56" t="n">
-        <v>0.0248833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="56" t="n">
-        <v>0.07465</v>
+        <v>0</v>
       </c>
       <c r="W4" s="56" t="n">
-        <v>0.2986</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="56" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -27459,9 +27600,7 @@
       <c r="N5" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="59" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="59"/>
       <c r="P5" s="59" t="n">
         <v>0</v>
       </c>
@@ -27930,9 +28069,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="6"/>
       <c r="P7" s="6" t="n">
         <v>1</v>
       </c>
@@ -28922,9 +29059,7 @@
       <c r="L7" s="62"/>
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
-      <c r="O7" s="62" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="62"/>
       <c r="P7" s="62" t="n">
         <v>1</v>
       </c>
@@ -29486,9 +29621,7 @@
       <c r="L5" s="63"/>
       <c r="M5" s="63"/>
       <c r="N5" s="63"/>
-      <c r="O5" s="63" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="63"/>
       <c r="P5" s="63" t="n">
         <v>1</v>
       </c>
@@ -31497,7 +31630,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="70" t="n">
-        <v>0.0529</v>
+        <v>0.0744</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -31568,7 +31701,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="70" t="n">
-        <v>0.0529</v>
+        <v>0.0744</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -31639,13 +31772,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="70" t="n">
-        <v>0.0529</v>
+        <v>0.0744</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="70" t="n">
-        <v>0.0159</v>
+        <v>0.016</v>
       </c>
       <c r="H4" s="70" t="n">
         <v>0.0053</v>
@@ -31654,7 +31787,7 @@
         <v>0.0053</v>
       </c>
       <c r="J4" s="70" t="n">
-        <v>0.0265</v>
+        <v>0.0266</v>
       </c>
       <c r="K4" s="70" t="n">
         <v>0.008</v>
@@ -31666,34 +31799,34 @@
         <v>0.0131</v>
       </c>
       <c r="N4" s="70" t="n">
-        <v>0.0264</v>
+        <v>0.0265</v>
       </c>
       <c r="O4" s="70" t="n">
-        <v>0.00881666666666667</v>
+        <v>0.0213</v>
       </c>
       <c r="P4" s="70" t="n">
-        <v>0.00881666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="70" t="n">
-        <v>0.00881666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="70" t="n">
-        <v>0.02645</v>
+        <v>0</v>
       </c>
       <c r="S4" s="70" t="n">
-        <v>0.00881666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="70" t="n">
-        <v>0.00881666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="70" t="n">
-        <v>0.00881666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="70" t="n">
-        <v>0.02645</v>
+        <v>0</v>
       </c>
       <c r="W4" s="70" t="n">
-        <v>0.1058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -31710,7 +31843,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -31781,7 +31914,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -31852,7 +31985,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -31882,31 +32015,31 @@
         <v>0.2857</v>
       </c>
       <c r="O7" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.8</v>
       </c>
       <c r="P7" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="Q7" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="R7" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="S7" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="T7" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="U7" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="V7" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="W7" s="70" t="n">
-        <v>0.423076923076923</v>
+        <v>0.483870967741935</v>
       </c>
     </row>
     <row r="8">
@@ -31923,7 +32056,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="70" t="n">
-        <v>1.0909</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -31994,7 +32127,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="70" t="n">
-        <v>1.0909</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -32065,7 +32198,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="70" t="n">
-        <v>1.0909</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -32095,31 +32228,31 @@
         <v>0.8333</v>
       </c>
       <c r="O10" s="70" t="n">
-        <v>0.181816666666667</v>
+        <v>0</v>
       </c>
       <c r="P10" s="70" t="n">
-        <v>0.181816666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="Q10" s="70" t="n">
-        <v>0.181816666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="R10" s="70" t="n">
-        <v>0.54545</v>
+        <v>0.428575</v>
       </c>
       <c r="S10" s="70" t="n">
-        <v>0.181816666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="T10" s="70" t="n">
-        <v>0.181816666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="U10" s="70" t="n">
-        <v>0.181816666666667</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="V10" s="70" t="n">
-        <v>0.54545</v>
+        <v>0.428575</v>
       </c>
       <c r="W10" s="70" t="n">
-        <v>2.1818</v>
+        <v>1.7143</v>
       </c>
     </row>
   </sheetData>
@@ -32554,7 +32687,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="72" t="n">
-        <v>0.0465</v>
+        <v>0.0467</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -32625,7 +32758,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="72" t="n">
-        <v>0.0465</v>
+        <v>0.0467</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -32696,7 +32829,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="72" t="n">
-        <v>0.0465</v>
+        <v>0.0467</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -32717,40 +32850,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="72" t="n">
-        <v>0.0455</v>
+        <v>0.0435</v>
       </c>
       <c r="M4" s="72" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="72" t="n">
-        <v>0.0508</v>
+        <v>0.0483</v>
       </c>
       <c r="O4" s="72" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="P4" s="72" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="72" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="R4" s="72" t="n">
-        <v>0.02325</v>
+        <v>0</v>
       </c>
       <c r="S4" s="72" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="T4" s="72" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="U4" s="72" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="V4" s="72" t="n">
-        <v>0.02325</v>
+        <v>0</v>
       </c>
       <c r="W4" s="72" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -33972,7 +34105,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="77" t="n">
-        <v>0.0893</v>
+        <v>0.0709</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -34043,7 +34176,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="77" t="n">
-        <v>0.0893</v>
+        <v>0.0709</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -34114,7 +34247,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="77" t="n">
-        <v>0.0893</v>
+        <v>0.0709</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -34123,13 +34256,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="77" t="n">
-        <v>0.0909</v>
+        <v>0.0714</v>
       </c>
       <c r="I4" s="77" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="77" t="n">
-        <v>0.0885</v>
+        <v>0.0699</v>
       </c>
       <c r="K4" s="77" t="n">
         <v>0</v>
@@ -34144,31 +34277,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="77" t="n">
-        <v>0.0148833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="77" t="n">
-        <v>0.0148833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="77" t="n">
-        <v>0.0148833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="77" t="n">
-        <v>0.04465</v>
+        <v>0</v>
       </c>
       <c r="S4" s="77" t="n">
-        <v>0.0148833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="77" t="n">
-        <v>0.0148833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="77" t="n">
-        <v>0.0148833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="77" t="n">
-        <v>0.04465</v>
+        <v>0</v>
       </c>
       <c r="W4" s="77" t="n">
-        <v>0.1786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -34316,9 +34449,7 @@
       <c r="L7" s="77"/>
       <c r="M7" s="77"/>
       <c r="N7" s="77"/>
-      <c r="O7" s="77" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="77"/>
       <c r="P7" s="77" t="n">
         <v>1</v>
       </c>
@@ -34358,7 +34489,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="77" t="n">
-        <v>0.2439</v>
+        <v>0.2222</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -34429,7 +34560,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="77" t="n">
-        <v>0.2439</v>
+        <v>0.2222</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -34500,7 +34631,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="77" t="n">
-        <v>0.2439</v>
+        <v>0.2222</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -34512,49 +34643,49 @@
         <v>0</v>
       </c>
       <c r="I10" s="77" t="n">
+        <v>0.1111</v>
+      </c>
+      <c r="J10" s="77" t="n">
+        <v>0.1031</v>
+      </c>
+      <c r="K10" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="77" t="n">
         <v>0.125</v>
       </c>
-      <c r="J10" s="77" t="n">
+      <c r="N10" s="77" t="n">
         <v>0.1149</v>
       </c>
-      <c r="K10" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="77" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="N10" s="77" t="n">
-        <v>0.1299</v>
-      </c>
       <c r="O10" s="77" t="n">
-        <v>0.04065</v>
+        <v>0</v>
       </c>
       <c r="P10" s="77" t="n">
-        <v>0.04065</v>
+        <v>0.0317416666666667</v>
       </c>
       <c r="Q10" s="77" t="n">
-        <v>0.04065</v>
+        <v>0.0317416666666667</v>
       </c>
       <c r="R10" s="77" t="n">
-        <v>0.12195</v>
+        <v>0.095225</v>
       </c>
       <c r="S10" s="77" t="n">
-        <v>0.04065</v>
+        <v>0.0317416666666667</v>
       </c>
       <c r="T10" s="77" t="n">
-        <v>0.04065</v>
+        <v>0.0317416666666667</v>
       </c>
       <c r="U10" s="77" t="n">
-        <v>0.04065</v>
+        <v>0.0317416666666667</v>
       </c>
       <c r="V10" s="77" t="n">
-        <v>0.12195</v>
+        <v>0.095225</v>
       </c>
       <c r="W10" s="77" t="n">
-        <v>0.4878</v>
+        <v>0.3809</v>
       </c>
     </row>
   </sheetData>
@@ -35797,9 +35928,7 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="80" t="n">
-        <v>0</v>
-      </c>
+      <c r="E7" s="80"/>
       <c r="F7" t="s">
         <v>27</v>
       </c>
@@ -35850,9 +35979,7 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="80" t="n">
-        <v>0</v>
-      </c>
+      <c r="E8" s="80"/>
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -35887,77 +36014,6 @@
         <v>0</v>
       </c>
       <c r="W8" s="80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38876,9 +38932,7 @@
       <c r="L7" s="88"/>
       <c r="M7" s="88"/>
       <c r="N7" s="88"/>
-      <c r="O7" s="88" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="88"/>
       <c r="P7" s="88" t="n">
         <v>1</v>
       </c>
@@ -39090,31 +39144,31 @@
         <v>0.0076</v>
       </c>
       <c r="O10" s="88" t="n">
-        <v>0.00255</v>
+        <v>0</v>
       </c>
       <c r="P10" s="88" t="n">
-        <v>0.00255</v>
+        <v>0.00218333333333333</v>
       </c>
       <c r="Q10" s="88" t="n">
-        <v>0.00255</v>
+        <v>0.00218333333333333</v>
       </c>
       <c r="R10" s="88" t="n">
-        <v>0.00765</v>
+        <v>0.00655</v>
       </c>
       <c r="S10" s="88" t="n">
-        <v>0.00255</v>
+        <v>0.00218333333333333</v>
       </c>
       <c r="T10" s="88" t="n">
-        <v>0.00255</v>
+        <v>0.00218333333333333</v>
       </c>
       <c r="U10" s="88" t="n">
-        <v>0.00255</v>
+        <v>0.00218333333333333</v>
       </c>
       <c r="V10" s="88" t="n">
-        <v>0.00765</v>
+        <v>0.00655</v>
       </c>
       <c r="W10" s="88" t="n">
-        <v>0.0306</v>
+        <v>0.0262</v>
       </c>
     </row>
   </sheetData>
@@ -39880,21 +39934,11 @@
       <c r="J4" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
       <c r="P4" s="90" t="n">
         <v>0</v>
       </c>
@@ -41239,7 +41283,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="94" t="n">
-        <v>0.0439</v>
+        <v>0.0437</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -41310,7 +41354,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="94" t="n">
-        <v>0.0439</v>
+        <v>0.0437</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -41381,7 +41425,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="94" t="n">
-        <v>0.0439</v>
+        <v>0.0437</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -41411,31 +41455,31 @@
         <v>0.0441</v>
       </c>
       <c r="O4" s="94" t="n">
-        <v>0.00731666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="94" t="n">
-        <v>0.00731666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="94" t="n">
-        <v>0.00731666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="94" t="n">
-        <v>0.02195</v>
+        <v>0</v>
       </c>
       <c r="S4" s="94" t="n">
-        <v>0.00731666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="94" t="n">
-        <v>0.00731666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="94" t="n">
-        <v>0.00731666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="94" t="n">
-        <v>0.02195</v>
+        <v>0</v>
       </c>
       <c r="W4" s="94" t="n">
-        <v>0.0878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -42546,9 +42590,7 @@
       <c r="L7" s="97"/>
       <c r="M7" s="97"/>
       <c r="N7" s="97"/>
-      <c r="O7" s="97" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="97"/>
       <c r="P7" s="97" t="n">
         <v>0</v>
       </c>
@@ -42971,7 +43013,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="99" t="n">
-        <v>0.12</v>
+        <v>0.1619</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -43042,7 +43084,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="99" t="n">
-        <v>0.12</v>
+        <v>0.1619</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -43113,7 +43155,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="99" t="n">
-        <v>0.12</v>
+        <v>0.1619</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -43143,31 +43185,31 @@
         <v>0.0823</v>
       </c>
       <c r="O4" s="99" t="n">
-        <v>0.02</v>
+        <v>0.0435</v>
       </c>
       <c r="P4" s="99" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="99" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R4" s="99" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="S4" s="99" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="T4" s="99" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U4" s="99" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="V4" s="99" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="W4" s="99" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
